--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32183.61768194466</v>
+        <v>-34443.08475037696</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6632862.567171218</v>
+        <v>6632862.567171202</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>50.83779374652713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>139.9133151432366</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>89.30725745073094</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.657053251779292</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>159.5756463905746</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>17.68403113376386</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>65.29997400339114</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>173.8683972746516</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>319.0035107334364</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>116.7829593815354</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>213.8524658611805</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>7.51168964393492</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
-        <v>294.7321536188795</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I11" t="n">
-        <v>42.04518470759513</v>
+        <v>42.04518470759555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.4645365582627</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9711388310545</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
         <v>250.9961436311612</v>
@@ -1464,10 +1464,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.65963851412512</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264396444</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.2642168648539</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
         <v>190.7427643629146</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>23.50616099077838</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182143</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
-        <v>144.8034546680179</v>
+        <v>107.6085055917714</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,10 +1622,10 @@
         <v>410.9338715566937</v>
       </c>
       <c r="H14" t="n">
-        <v>294.7321536188795</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I14" t="n">
-        <v>42.04518470759513</v>
+        <v>42.04518470759555</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.4645365582627</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9711388310551</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U14" t="n">
         <v>250.9961436311612</v>
@@ -1701,10 +1701,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H15" t="n">
-        <v>89.65963851412512</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I15" t="n">
-        <v>8.915218264396444</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.2642168648539</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T15" t="n">
         <v>190.7427643629146</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>121.7226093811853</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0312564930841</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.8034546680179</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I16" t="n">
-        <v>96.51626366671968</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.2121353820159</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>69.24551620400364</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>410.9338715566937</v>
       </c>
       <c r="H17" t="n">
-        <v>294.7321536188795</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I17" t="n">
-        <v>42.0451847075951</v>
+        <v>42.04518470759555</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.4645365582627</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T17" t="n">
         <v>203.9711388310543</v>
@@ -1938,10 +1938,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H18" t="n">
-        <v>89.65963851412512</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I18" t="n">
-        <v>8.91521826439643</v>
+        <v>8.915218264397675</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.2642168648539</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T18" t="n">
         <v>190.7427643629146</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0312564930841</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H19" t="n">
-        <v>144.8034546680179</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>89.17712508496156</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>112.972749085152</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>178.5974918284438</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0312564930842</v>
@@ -2257,7 +2257,7 @@
         <v>144.803454668018</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>89.1771250849618</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>33.5649644731175</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>122.5235562758195</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>410.9338715566937</v>
       </c>
       <c r="H23" t="n">
-        <v>294.7321536188795</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I23" t="n">
-        <v>42.0451847075951</v>
+        <v>42.04518470759555</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.4645365582627</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T23" t="n">
         <v>203.9711388310543</v>
@@ -2412,10 +2412,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H24" t="n">
-        <v>89.65963851412512</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I24" t="n">
-        <v>8.91521826439643</v>
+        <v>8.915218264397675</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>128.2642168648539</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T24" t="n">
         <v>190.7427643629146</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>87.50952440746808</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0312564930841</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.8034546680179</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.51626366671967</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>211.3121606931766</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>88.98285123171736</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>37.38100496017452</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.9637428177466</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>127.3165365479905</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3190,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>53.82704427691577</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>209.5675193320711</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>177.5436091222471</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55.1844574929718</v>
+        <v>20.10749222537358</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.4666438546318</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>187.4806542717529</v>
+        <v>187.4806542717517</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2605782164802</v>
+        <v>217.260578216479</v>
       </c>
       <c r="U37" t="n">
-        <v>283.9234671459239</v>
+        <v>283.9234671459227</v>
       </c>
       <c r="V37" t="n">
-        <v>249.849272264139</v>
+        <v>249.8492722641378</v>
       </c>
       <c r="W37" t="n">
-        <v>284.234627276902</v>
+        <v>284.2346272769008</v>
       </c>
       <c r="X37" t="n">
-        <v>223.4212843293482</v>
+        <v>223.421284329347</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.2962822924058</v>
+        <v>216.2962822924046</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404363</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052358</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.271684480036</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.312047941846</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.312047941846</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>909.0463493350958</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>523.2580967368515</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2105.981665882184</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2105.981665882184</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2105.981665882184</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941846</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>637.9196332460999</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>348.7460229006679</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>348.7460229006679</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="W4" t="n">
-        <v>348.7460229006679</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>498.1369047015218</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1371.274936282423</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="C5" t="n">
-        <v>1371.274936282423</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="D5" t="n">
-        <v>1371.274936282423</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>636.257520325755</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>225.2716155361474</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4604,13 +4604,13 @@
         <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.274936282423</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,22 +4653,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610022</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C7" t="n">
-        <v>270.0191909330953</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D7" t="n">
-        <v>119.9025515207595</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>552.5043404946649</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>552.5043404946649</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.32125595057</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.32125595057</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.32125595057</v>
+        <v>1507.115530902032</v>
       </c>
       <c r="E8" t="n">
-        <v>1154.32125595057</v>
+        <v>1121.327278303787</v>
       </c>
       <c r="F8" t="n">
-        <v>743.3353511609621</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>325.371543059149</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628376</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284805</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014691</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1540.921096014691</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1540.921096014691</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>512.116392427464</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>222.942782082032</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V10" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.846544663937</v>
+        <v>2374.846544663938</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.884027723526</v>
+        <v>2005.884027723527</v>
       </c>
       <c r="D11" t="n">
-        <v>1647.618329116776</v>
+        <v>1647.618329116777</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.830076518533</v>
       </c>
       <c r="F11" t="n">
-        <v>850.8441717289243</v>
+        <v>850.8441717289247</v>
       </c>
       <c r="G11" t="n">
-        <v>435.7594529847892</v>
+        <v>435.7594529847897</v>
       </c>
       <c r="H11" t="n">
-        <v>138.0502069051129</v>
+        <v>138.0502069051133</v>
       </c>
       <c r="I11" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J11" t="n">
-        <v>283.4388946495283</v>
+        <v>283.4388946495274</v>
       </c>
       <c r="K11" t="n">
-        <v>936.6326723899256</v>
+        <v>936.6326723899233</v>
       </c>
       <c r="L11" t="n">
-        <v>1799.253940563953</v>
+        <v>1799.253940563949</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.674458046868</v>
+        <v>2330.674458046863</v>
       </c>
       <c r="N11" t="n">
-        <v>3308.281178632401</v>
+        <v>3202.782671979844</v>
       </c>
       <c r="O11" t="n">
-        <v>4080.72133873527</v>
+        <v>4080.721338735274</v>
       </c>
       <c r="P11" t="n">
-        <v>4473.766574984807</v>
+        <v>4473.766574984809</v>
       </c>
       <c r="Q11" t="n">
-        <v>4720.75443204104</v>
+        <v>4720.754432041042</v>
       </c>
       <c r="R11" t="n">
-        <v>4779.016168104372</v>
+        <v>4779.016168104373</v>
       </c>
       <c r="S11" t="n">
-        <v>4668.445929156632</v>
+        <v>4668.445929156633</v>
       </c>
       <c r="T11" t="n">
-        <v>4462.41447579193</v>
+        <v>4462.414475791931</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.883017578636</v>
+        <v>4208.883017578637</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.820130235065</v>
+        <v>3877.820130235066</v>
       </c>
       <c r="W11" t="n">
-        <v>3525.051474964951</v>
+        <v>3525.051474964952</v>
       </c>
       <c r="X11" t="n">
-        <v>3151.585716703871</v>
+        <v>3151.585716703872</v>
       </c>
       <c r="Y11" t="n">
-        <v>2761.446384728059</v>
+        <v>2761.44638472806</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960.6800021268576</v>
+        <v>960.6800021268579</v>
       </c>
       <c r="C12" t="n">
-        <v>786.2269728457306</v>
+        <v>786.2269728457309</v>
       </c>
       <c r="D12" t="n">
-        <v>637.2925631844794</v>
+        <v>637.2925631844796</v>
       </c>
       <c r="E12" t="n">
-        <v>478.0551081790238</v>
+        <v>478.0551081790242</v>
       </c>
       <c r="F12" t="n">
-        <v>331.5205502059088</v>
+        <v>331.5205502059091</v>
       </c>
       <c r="G12" t="n">
-        <v>195.1508857646345</v>
+        <v>195.1508857646348</v>
       </c>
       <c r="H12" t="n">
-        <v>104.5855943362253</v>
+        <v>104.5855943362255</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J12" t="n">
-        <v>188.6497545038426</v>
+        <v>188.6497545038421</v>
       </c>
       <c r="K12" t="n">
-        <v>425.8750609309167</v>
+        <v>425.8750609309152</v>
       </c>
       <c r="L12" t="n">
-        <v>791.1763019984022</v>
+        <v>791.1763019983995</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.822488350007</v>
+        <v>1236.822488350013</v>
       </c>
       <c r="N12" t="n">
-        <v>1708.672248108483</v>
+        <v>1708.672248108488</v>
       </c>
       <c r="O12" t="n">
-        <v>2118.102799755741</v>
+        <v>2118.102799755745</v>
       </c>
       <c r="P12" t="n">
-        <v>2427.373847244436</v>
+        <v>2427.373847244437</v>
       </c>
       <c r="Q12" t="n">
         <v>2584.194155770509</v>
@@ -5157,10 +5157,10 @@
         <v>1798.744494845614</v>
       </c>
       <c r="W12" t="n">
-        <v>1544.507138117412</v>
+        <v>1544.507138117413</v>
       </c>
       <c r="X12" t="n">
-        <v>1336.655637911879</v>
+        <v>1336.65563791188</v>
       </c>
       <c r="Y12" t="n">
         <v>1128.895339146926</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.5900361487504</v>
+        <v>914.3949793613704</v>
       </c>
       <c r="C13" t="n">
-        <v>241.8464391883682</v>
+        <v>914.3949793613704</v>
       </c>
       <c r="D13" t="n">
-        <v>241.8464391883682</v>
+        <v>764.2783399490328</v>
       </c>
       <c r="E13" t="n">
-        <v>241.8464391883682</v>
+        <v>616.3652463666397</v>
       </c>
       <c r="F13" t="n">
-        <v>241.8464391883682</v>
+        <v>469.4752988687293</v>
       </c>
       <c r="G13" t="n">
-        <v>241.8464391883682</v>
+        <v>301.766958976725</v>
       </c>
       <c r="H13" t="n">
-        <v>95.58032336208744</v>
+        <v>193.0714987830165</v>
       </c>
       <c r="I13" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J13" t="n">
-        <v>140.3216175627472</v>
+        <v>140.3216175627467</v>
       </c>
       <c r="K13" t="n">
-        <v>343.6821446305121</v>
+        <v>343.6821446305109</v>
       </c>
       <c r="L13" t="n">
-        <v>659.440039301254</v>
+        <v>659.4400393012521</v>
       </c>
       <c r="M13" t="n">
-        <v>1002.751589802367</v>
+        <v>1002.751589802365</v>
       </c>
       <c r="N13" t="n">
-        <v>1343.334575393463</v>
+        <v>1343.334575393459</v>
       </c>
       <c r="O13" t="n">
-        <v>1641.901792025963</v>
+        <v>1641.901792025959</v>
       </c>
       <c r="P13" t="n">
-        <v>1873.856942706703</v>
+        <v>1873.856942706699</v>
       </c>
       <c r="Q13" t="n">
-        <v>1951.015585704217</v>
+        <v>1951.015585704212</v>
       </c>
       <c r="R13" t="n">
-        <v>1951.015585704217</v>
+        <v>1860.937681577988</v>
       </c>
       <c r="S13" t="n">
-        <v>1951.015585704217</v>
+        <v>1860.937681577988</v>
       </c>
       <c r="T13" t="n">
-        <v>1729.225456315926</v>
+        <v>1860.937681577988</v>
       </c>
       <c r="U13" t="n">
-        <v>1440.122289263385</v>
+        <v>1860.937681577988</v>
       </c>
       <c r="V13" t="n">
-        <v>1185.437801057498</v>
+        <v>1606.253193372101</v>
       </c>
       <c r="W13" t="n">
-        <v>896.0206310205375</v>
+        <v>1316.83602333514</v>
       </c>
       <c r="X13" t="n">
-        <v>668.0310801225202</v>
+        <v>1316.83602333514</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.2385009789901</v>
+        <v>1096.04344419161</v>
       </c>
     </row>
     <row r="14">
@@ -5267,43 +5267,43 @@
         <v>850.8441717289243</v>
       </c>
       <c r="G14" t="n">
-        <v>435.7594529847891</v>
+        <v>435.7594529847894</v>
       </c>
       <c r="H14" t="n">
-        <v>138.0502069051128</v>
+        <v>138.0502069051133</v>
       </c>
       <c r="I14" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J14" t="n">
-        <v>283.4388946495283</v>
+        <v>283.4388946495274</v>
       </c>
       <c r="K14" t="n">
-        <v>615.7287139444725</v>
+        <v>615.7287139444702</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.3499821185</v>
+        <v>1478.349982118496</v>
       </c>
       <c r="M14" t="n">
-        <v>2454.788897759319</v>
+        <v>2454.788897759313</v>
       </c>
       <c r="N14" t="n">
-        <v>3432.395618344852</v>
+        <v>3432.395618344844</v>
       </c>
       <c r="O14" t="n">
-        <v>4080.72133873527</v>
+        <v>3933.342105650156</v>
       </c>
       <c r="P14" t="n">
-        <v>4473.766574984807</v>
+        <v>4473.766574984809</v>
       </c>
       <c r="Q14" t="n">
-        <v>4720.75443204104</v>
+        <v>4720.754432041042</v>
       </c>
       <c r="R14" t="n">
-        <v>4779.016168104372</v>
+        <v>4779.016168104373</v>
       </c>
       <c r="S14" t="n">
-        <v>4668.445929156633</v>
+        <v>4668.445929156632</v>
       </c>
       <c r="T14" t="n">
         <v>4462.41447579193</v>
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>960.6800021268576</v>
+        <v>960.6800021268582</v>
       </c>
       <c r="C15" t="n">
-        <v>786.2269728457306</v>
+        <v>786.2269728457312</v>
       </c>
       <c r="D15" t="n">
-        <v>637.2925631844794</v>
+        <v>637.2925631844801</v>
       </c>
       <c r="E15" t="n">
-        <v>478.0551081790238</v>
+        <v>478.0551081790245</v>
       </c>
       <c r="F15" t="n">
-        <v>331.5205502059088</v>
+        <v>331.5205502059096</v>
       </c>
       <c r="G15" t="n">
-        <v>195.1508857646345</v>
+        <v>195.1508857646352</v>
       </c>
       <c r="H15" t="n">
-        <v>104.5855943362253</v>
+        <v>104.585594336226</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J15" t="n">
-        <v>188.649754503832</v>
+        <v>188.6497545038417</v>
       </c>
       <c r="K15" t="n">
-        <v>425.8750609309061</v>
+        <v>425.8750609309145</v>
       </c>
       <c r="L15" t="n">
-        <v>791.1763019983916</v>
+        <v>791.1763019983989</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.822488350007</v>
+        <v>1236.822488350013</v>
       </c>
       <c r="N15" t="n">
-        <v>1708.672248108483</v>
+        <v>1708.672248108487</v>
       </c>
       <c r="O15" t="n">
-        <v>2118.102799755741</v>
+        <v>2118.102799755744</v>
       </c>
       <c r="P15" t="n">
-        <v>2427.373847244436</v>
+        <v>2427.373847244438</v>
       </c>
       <c r="Q15" t="n">
         <v>2584.194155770509</v>
@@ -5391,13 +5391,13 @@
         <v>2033.896603077357</v>
       </c>
       <c r="V15" t="n">
-        <v>1798.744494845614</v>
+        <v>1798.744494845615</v>
       </c>
       <c r="W15" t="n">
-        <v>1544.507138117412</v>
+        <v>1544.507138117413</v>
       </c>
       <c r="X15" t="n">
-        <v>1336.655637911879</v>
+        <v>1336.65563791188</v>
       </c>
       <c r="Y15" t="n">
         <v>1128.895339146926</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.901817921848</v>
+        <v>803.0768386175077</v>
       </c>
       <c r="C16" t="n">
-        <v>951.9656349939405</v>
+        <v>634.1406556896009</v>
       </c>
       <c r="D16" t="n">
-        <v>801.8489955816048</v>
+        <v>634.1406556896009</v>
       </c>
       <c r="E16" t="n">
-        <v>653.9359019992116</v>
+        <v>486.2275621072077</v>
       </c>
       <c r="F16" t="n">
-        <v>507.0459545013013</v>
+        <v>339.3376146092974</v>
       </c>
       <c r="G16" t="n">
-        <v>339.3376146092971</v>
+        <v>339.3376146092974</v>
       </c>
       <c r="H16" t="n">
-        <v>193.0714987830164</v>
+        <v>193.0714987830166</v>
       </c>
       <c r="I16" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208747</v>
       </c>
       <c r="J16" t="n">
-        <v>140.3216175627472</v>
+        <v>140.3216175627469</v>
       </c>
       <c r="K16" t="n">
-        <v>343.6821446305117</v>
+        <v>343.6821446305111</v>
       </c>
       <c r="L16" t="n">
-        <v>659.4400393012564</v>
+        <v>659.4400393012522</v>
       </c>
       <c r="M16" t="n">
-        <v>1002.75158980237</v>
+        <v>1002.751589802365</v>
       </c>
       <c r="N16" t="n">
-        <v>1343.334575393465</v>
+        <v>1343.33457539346</v>
       </c>
       <c r="O16" t="n">
-        <v>1641.901792025966</v>
+        <v>1641.90179202596</v>
       </c>
       <c r="P16" t="n">
-        <v>1873.856942706706</v>
+        <v>1873.856942706699</v>
       </c>
       <c r="Q16" t="n">
-        <v>1951.015585704219</v>
+        <v>1951.015585704212</v>
       </c>
       <c r="R16" t="n">
-        <v>1951.015585704219</v>
+        <v>1951.015585704212</v>
       </c>
       <c r="S16" t="n">
-        <v>1951.015585704219</v>
+        <v>1759.233794600963</v>
       </c>
       <c r="T16" t="n">
-        <v>1951.015585704219</v>
+        <v>1759.233794600963</v>
       </c>
       <c r="U16" t="n">
-        <v>1661.912418651678</v>
+        <v>1470.130627548422</v>
       </c>
       <c r="V16" t="n">
-        <v>1661.912418651678</v>
+        <v>1215.446139342535</v>
       </c>
       <c r="W16" t="n">
-        <v>1372.495248614717</v>
+        <v>926.0289693055738</v>
       </c>
       <c r="X16" t="n">
-        <v>1302.550282752087</v>
+        <v>926.0289693055738</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.550282752087</v>
+        <v>926.0289693055738</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.846544663937</v>
+        <v>2374.846544663938</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.884027723526</v>
+        <v>2005.884027723527</v>
       </c>
       <c r="D17" t="n">
-        <v>1647.618329116776</v>
+        <v>1647.618329116777</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.830076518533</v>
       </c>
       <c r="F17" t="n">
-        <v>850.8441717289243</v>
+        <v>850.8441717289247</v>
       </c>
       <c r="G17" t="n">
-        <v>435.7594529847893</v>
+        <v>435.7594529847897</v>
       </c>
       <c r="H17" t="n">
-        <v>138.0502069051128</v>
+        <v>138.0502069051133</v>
       </c>
       <c r="I17" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J17" t="n">
-        <v>283.4388946495284</v>
+        <v>283.4388946495274</v>
       </c>
       <c r="K17" t="n">
-        <v>615.7287139444727</v>
+        <v>936.6326723899233</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.3499821185</v>
+        <v>1799.253940563949</v>
       </c>
       <c r="M17" t="n">
-        <v>2225.175951394304</v>
+        <v>2775.692856204766</v>
       </c>
       <c r="N17" t="n">
-        <v>3202.782671979837</v>
+        <v>3579.774851429962</v>
       </c>
       <c r="O17" t="n">
-        <v>4080.721338735269</v>
+        <v>4080.721338735274</v>
       </c>
       <c r="P17" t="n">
-        <v>4473.766574984806</v>
+        <v>4473.766574984809</v>
       </c>
       <c r="Q17" t="n">
-        <v>4720.75443204104</v>
+        <v>4720.754432041042</v>
       </c>
       <c r="R17" t="n">
-        <v>4779.016168104372</v>
+        <v>4779.016168104373</v>
       </c>
       <c r="S17" t="n">
         <v>4668.445929156632</v>
       </c>
       <c r="T17" t="n">
-        <v>4462.41447579193</v>
+        <v>4462.414475791931</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.883017578636</v>
+        <v>4208.883017578637</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.820130235065</v>
+        <v>3877.820130235066</v>
       </c>
       <c r="W17" t="n">
-        <v>3525.051474964951</v>
+        <v>3525.051474964952</v>
       </c>
       <c r="X17" t="n">
-        <v>3151.585716703871</v>
+        <v>3151.585716703872</v>
       </c>
       <c r="Y17" t="n">
-        <v>2761.446384728059</v>
+        <v>2761.44638472806</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>960.6800021268576</v>
+        <v>960.6800021268589</v>
       </c>
       <c r="C18" t="n">
-        <v>786.2269728457306</v>
+        <v>786.2269728457319</v>
       </c>
       <c r="D18" t="n">
-        <v>637.2925631844794</v>
+        <v>637.2925631844806</v>
       </c>
       <c r="E18" t="n">
-        <v>478.0551081790238</v>
+        <v>478.0551081790251</v>
       </c>
       <c r="F18" t="n">
-        <v>331.5205502059088</v>
+        <v>331.5205502059101</v>
       </c>
       <c r="G18" t="n">
-        <v>195.1508857646345</v>
+        <v>195.1508857646358</v>
       </c>
       <c r="H18" t="n">
-        <v>104.5855943362253</v>
+        <v>104.5855943362265</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J18" t="n">
-        <v>188.6497545038427</v>
+        <v>188.6497545038421</v>
       </c>
       <c r="K18" t="n">
-        <v>425.8750609309168</v>
+        <v>425.8750609309152</v>
       </c>
       <c r="L18" t="n">
-        <v>791.1763019984024</v>
+        <v>791.1763019983995</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.822488350018</v>
+        <v>1236.822488350013</v>
       </c>
       <c r="N18" t="n">
-        <v>1708.672248108494</v>
+        <v>1708.672248108488</v>
       </c>
       <c r="O18" t="n">
-        <v>2118.102799755753</v>
+        <v>2118.102799755745</v>
       </c>
       <c r="P18" t="n">
-        <v>2427.373847244447</v>
+        <v>2427.373847244438</v>
       </c>
       <c r="Q18" t="n">
-        <v>2584.19415577052</v>
+        <v>2584.19415577051</v>
       </c>
       <c r="R18" t="n">
-        <v>2584.194155770509</v>
+        <v>2584.19415577051</v>
       </c>
       <c r="S18" t="n">
-        <v>2454.634340755505</v>
+        <v>2454.634340755506</v>
       </c>
       <c r="T18" t="n">
-        <v>2261.964881803066</v>
+        <v>2261.964881803067</v>
       </c>
       <c r="U18" t="n">
-        <v>2033.896603077357</v>
+        <v>2033.896603077358</v>
       </c>
       <c r="V18" t="n">
-        <v>1798.744494845614</v>
+        <v>1798.744494845615</v>
       </c>
       <c r="W18" t="n">
-        <v>1544.507138117412</v>
+        <v>1544.507138117414</v>
       </c>
       <c r="X18" t="n">
-        <v>1336.655637911879</v>
+        <v>1336.655637911881</v>
       </c>
       <c r="Y18" t="n">
-        <v>1128.895339146926</v>
+        <v>1128.895339146927</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1023.410642500918</v>
+        <v>578.4909620082793</v>
       </c>
       <c r="C19" t="n">
-        <v>854.4744595730116</v>
+        <v>409.5547790803724</v>
       </c>
       <c r="D19" t="n">
-        <v>704.3578201606758</v>
+        <v>409.5547790803724</v>
       </c>
       <c r="E19" t="n">
-        <v>556.4447265782827</v>
+        <v>409.5547790803724</v>
       </c>
       <c r="F19" t="n">
-        <v>409.5547790803723</v>
+        <v>409.5547790803724</v>
       </c>
       <c r="G19" t="n">
-        <v>241.8464391883682</v>
+        <v>241.8464391883683</v>
       </c>
       <c r="H19" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="I19" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J19" t="n">
-        <v>140.3216175627472</v>
+        <v>140.3216175627469</v>
       </c>
       <c r="K19" t="n">
-        <v>343.682144630512</v>
+        <v>343.6821446305111</v>
       </c>
       <c r="L19" t="n">
-        <v>659.4400393012539</v>
+        <v>659.4400393012522</v>
       </c>
       <c r="M19" t="n">
-        <v>1002.751589802367</v>
+        <v>1002.751589802365</v>
       </c>
       <c r="N19" t="n">
-        <v>1343.334575393463</v>
+        <v>1343.33457539346</v>
       </c>
       <c r="O19" t="n">
-        <v>1641.901792025963</v>
+        <v>1641.90179202596</v>
       </c>
       <c r="P19" t="n">
-        <v>1873.856942706704</v>
+        <v>1873.856942706699</v>
       </c>
       <c r="Q19" t="n">
-        <v>1951.015585704217</v>
+        <v>1951.015585704212</v>
       </c>
       <c r="R19" t="n">
-        <v>1860.937681577993</v>
+        <v>1860.937681577988</v>
       </c>
       <c r="S19" t="n">
-        <v>1860.937681577993</v>
+        <v>1746.823793613188</v>
       </c>
       <c r="T19" t="n">
-        <v>1860.937681577993</v>
+        <v>1525.033664224897</v>
       </c>
       <c r="U19" t="n">
-        <v>1860.937681577993</v>
+        <v>1525.033664224897</v>
       </c>
       <c r="V19" t="n">
-        <v>1606.253193372106</v>
+        <v>1270.34917601901</v>
       </c>
       <c r="W19" t="n">
-        <v>1425.851686474688</v>
+        <v>980.9320059820492</v>
       </c>
       <c r="X19" t="n">
-        <v>1425.851686474688</v>
+        <v>980.9320059820492</v>
       </c>
       <c r="Y19" t="n">
-        <v>1205.059107331158</v>
+        <v>760.1394268385191</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.846544663937</v>
+        <v>2374.846544663938</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.884027723526</v>
+        <v>2005.884027723527</v>
       </c>
       <c r="D20" t="n">
-        <v>1647.618329116776</v>
+        <v>1647.618329116777</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.830076518533</v>
       </c>
       <c r="F20" t="n">
-        <v>850.8441717289243</v>
+        <v>850.8441717289252</v>
       </c>
       <c r="G20" t="n">
-        <v>435.7594529847893</v>
+        <v>435.7594529847902</v>
       </c>
       <c r="H20" t="n">
-        <v>138.0502069051133</v>
+        <v>138.0502069051136</v>
       </c>
       <c r="I20" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J20" t="n">
         <v>283.4388946495274</v>
@@ -5756,46 +5756,46 @@
         <v>615.7287139444702</v>
       </c>
       <c r="L20" t="n">
-        <v>1248.737035753495</v>
+        <v>1478.349982118496</v>
       </c>
       <c r="M20" t="n">
-        <v>2225.175951394313</v>
+        <v>2454.788897759313</v>
       </c>
       <c r="N20" t="n">
-        <v>3202.782671979843</v>
+        <v>3432.395618344844</v>
       </c>
       <c r="O20" t="n">
         <v>4080.721338735274</v>
       </c>
       <c r="P20" t="n">
-        <v>4473.766574984808</v>
+        <v>4473.766574984809</v>
       </c>
       <c r="Q20" t="n">
-        <v>4720.754432041041</v>
+        <v>4720.754432041042</v>
       </c>
       <c r="R20" t="n">
-        <v>4779.016168104372</v>
+        <v>4779.016168104373</v>
       </c>
       <c r="S20" t="n">
-        <v>4668.445929156632</v>
+        <v>4668.445929156633</v>
       </c>
       <c r="T20" t="n">
-        <v>4462.41447579193</v>
+        <v>4462.414475791931</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.883017578636</v>
+        <v>4208.883017578637</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.820130235065</v>
+        <v>3877.820130235066</v>
       </c>
       <c r="W20" t="n">
-        <v>3525.051474964951</v>
+        <v>3525.051474964952</v>
       </c>
       <c r="X20" t="n">
-        <v>3151.585716703871</v>
+        <v>3151.585716703872</v>
       </c>
       <c r="Y20" t="n">
-        <v>2761.446384728059</v>
+        <v>2761.44638472806</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>960.6800021268582</v>
+        <v>960.6800021268579</v>
       </c>
       <c r="C21" t="n">
-        <v>786.2269728457312</v>
+        <v>786.2269728457309</v>
       </c>
       <c r="D21" t="n">
-        <v>637.2925631844801</v>
+        <v>637.2925631844796</v>
       </c>
       <c r="E21" t="n">
-        <v>478.0551081790245</v>
+        <v>478.0551081790242</v>
       </c>
       <c r="F21" t="n">
-        <v>331.5205502059095</v>
+        <v>331.5205502059091</v>
       </c>
       <c r="G21" t="n">
-        <v>195.1508857646352</v>
+        <v>195.1508857646348</v>
       </c>
       <c r="H21" t="n">
-        <v>104.585594336226</v>
+        <v>104.5855943362255</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J21" t="n">
-        <v>188.6497545038421</v>
+        <v>188.6497545038409</v>
       </c>
       <c r="K21" t="n">
-        <v>425.8750609309152</v>
+        <v>425.8750609309139</v>
       </c>
       <c r="L21" t="n">
-        <v>791.1763019983996</v>
+        <v>791.1763019983982</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.822488350013</v>
+        <v>1236.822488350012</v>
       </c>
       <c r="N21" t="n">
-        <v>1708.672248108488</v>
+        <v>1708.672248108486</v>
       </c>
       <c r="O21" t="n">
-        <v>2118.102799755745</v>
+        <v>2118.102799755743</v>
       </c>
       <c r="P21" t="n">
-        <v>2427.373847244438</v>
+        <v>2427.373847244437</v>
       </c>
       <c r="Q21" t="n">
         <v>2584.194155770509</v>
@@ -5865,7 +5865,7 @@
         <v>2033.896603077357</v>
       </c>
       <c r="V21" t="n">
-        <v>1798.744494845615</v>
+        <v>1798.744494845614</v>
       </c>
       <c r="W21" t="n">
         <v>1544.507138117413</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>873.2940030885828</v>
+        <v>675.9821374292085</v>
       </c>
       <c r="C22" t="n">
-        <v>704.3578201606759</v>
+        <v>507.0459545013016</v>
       </c>
       <c r="D22" t="n">
-        <v>704.3578201606759</v>
+        <v>507.0459545013016</v>
       </c>
       <c r="E22" t="n">
-        <v>556.4447265782828</v>
+        <v>507.0459545013016</v>
       </c>
       <c r="F22" t="n">
-        <v>409.5547790803724</v>
+        <v>507.0459545013016</v>
       </c>
       <c r="G22" t="n">
-        <v>241.8464391883683</v>
+        <v>339.3376146092974</v>
       </c>
       <c r="H22" t="n">
-        <v>95.58032336208746</v>
+        <v>193.0714987830166</v>
       </c>
       <c r="I22" t="n">
         <v>95.58032336208746</v>
       </c>
       <c r="J22" t="n">
-        <v>140.3216175627469</v>
+        <v>140.3216175627468</v>
       </c>
       <c r="K22" t="n">
         <v>343.6821446305111</v>
@@ -5941,19 +5941,19 @@
         <v>1860.937681577988</v>
       </c>
       <c r="U22" t="n">
-        <v>1827.033677059688</v>
+        <v>1571.834514525447</v>
       </c>
       <c r="V22" t="n">
-        <v>1572.349188853801</v>
+        <v>1317.15002631956</v>
       </c>
       <c r="W22" t="n">
-        <v>1282.93201881684</v>
+        <v>1027.732856282599</v>
       </c>
       <c r="X22" t="n">
-        <v>1054.942467918823</v>
+        <v>799.7433053845817</v>
       </c>
       <c r="Y22" t="n">
-        <v>1054.942467918823</v>
+        <v>675.9821374292085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.846544663937</v>
+        <v>2374.846544663939</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.884027723525</v>
+        <v>2005.884027723527</v>
       </c>
       <c r="D23" t="n">
-        <v>1647.618329116775</v>
+        <v>1647.618329116777</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.830076518531</v>
+        <v>1261.830076518532</v>
       </c>
       <c r="F23" t="n">
-        <v>850.8441717289234</v>
+        <v>850.8441717289247</v>
       </c>
       <c r="G23" t="n">
-        <v>435.7594529847884</v>
+        <v>435.7594529847897</v>
       </c>
       <c r="H23" t="n">
-        <v>138.0502069051126</v>
+        <v>138.0502069051133</v>
       </c>
       <c r="I23" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J23" t="n">
-        <v>450.8445436698814</v>
+        <v>283.4388946495274</v>
       </c>
       <c r="K23" t="n">
-        <v>792.9525726704994</v>
+        <v>615.7287139444702</v>
       </c>
       <c r="L23" t="n">
-        <v>1242.089238439581</v>
+        <v>1478.349982118496</v>
       </c>
       <c r="M23" t="n">
-        <v>2218.528154080401</v>
+        <v>2454.788897759313</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.134874665933</v>
+        <v>3432.395618344844</v>
       </c>
       <c r="O23" t="n">
-        <v>3697.081361971248</v>
+        <v>4080.721338735274</v>
       </c>
       <c r="P23" t="n">
-        <v>4408.707319310553</v>
+        <v>4473.766574984809</v>
       </c>
       <c r="Q23" t="n">
-        <v>4655.695176366787</v>
+        <v>4720.754432041042</v>
       </c>
       <c r="R23" t="n">
-        <v>4779.016168104372</v>
+        <v>4779.016168104373</v>
       </c>
       <c r="S23" t="n">
-        <v>4668.445929156631</v>
+        <v>4668.445929156633</v>
       </c>
       <c r="T23" t="n">
-        <v>4462.414475791929</v>
+        <v>4462.414475791931</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.883017578635</v>
+        <v>4208.883017578637</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.820130235064</v>
+        <v>3877.820130235067</v>
       </c>
       <c r="W23" t="n">
-        <v>3525.05147496495</v>
+        <v>3525.051474964952</v>
       </c>
       <c r="X23" t="n">
-        <v>3151.58571670387</v>
+        <v>3151.585716703873</v>
       </c>
       <c r="Y23" t="n">
-        <v>2761.446384728059</v>
+        <v>2761.446384728061</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>960.6800021268576</v>
+        <v>960.6800021268589</v>
       </c>
       <c r="C24" t="n">
-        <v>786.2269728457306</v>
+        <v>786.2269728457319</v>
       </c>
       <c r="D24" t="n">
-        <v>637.2925631844794</v>
+        <v>637.2925631844806</v>
       </c>
       <c r="E24" t="n">
-        <v>478.0551081790238</v>
+        <v>478.0551081790251</v>
       </c>
       <c r="F24" t="n">
-        <v>331.5205502059088</v>
+        <v>331.5205502059101</v>
       </c>
       <c r="G24" t="n">
-        <v>195.1508857646345</v>
+        <v>195.1508857646358</v>
       </c>
       <c r="H24" t="n">
-        <v>104.5855943362253</v>
+        <v>104.5855943362265</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J24" t="n">
-        <v>188.6497545038427</v>
+        <v>188.6497545038421</v>
       </c>
       <c r="K24" t="n">
-        <v>425.8750609309053</v>
+        <v>425.8750609309152</v>
       </c>
       <c r="L24" t="n">
-        <v>791.176301998391</v>
+        <v>791.1763019983995</v>
       </c>
       <c r="M24" t="n">
-        <v>1236.822488350006</v>
+        <v>1236.822488350013</v>
       </c>
       <c r="N24" t="n">
-        <v>1708.672248108483</v>
+        <v>1708.672248108488</v>
       </c>
       <c r="O24" t="n">
-        <v>2118.102799755741</v>
+        <v>2118.102799755745</v>
       </c>
       <c r="P24" t="n">
-        <v>2427.373847244436</v>
+        <v>2427.373847244438</v>
       </c>
       <c r="Q24" t="n">
-        <v>2584.194155770509</v>
+        <v>2584.19415577051</v>
       </c>
       <c r="R24" t="n">
-        <v>2584.194155770509</v>
+        <v>2584.19415577051</v>
       </c>
       <c r="S24" t="n">
-        <v>2454.634340755505</v>
+        <v>2454.634340755506</v>
       </c>
       <c r="T24" t="n">
-        <v>2261.964881803066</v>
+        <v>2261.964881803067</v>
       </c>
       <c r="U24" t="n">
-        <v>2033.896603077357</v>
+        <v>2033.896603077358</v>
       </c>
       <c r="V24" t="n">
-        <v>1798.744494845614</v>
+        <v>1798.744494845615</v>
       </c>
       <c r="W24" t="n">
-        <v>1544.507138117412</v>
+        <v>1544.507138117414</v>
       </c>
       <c r="X24" t="n">
-        <v>1336.655637911879</v>
+        <v>1336.655637911881</v>
       </c>
       <c r="Y24" t="n">
-        <v>1128.895339146926</v>
+        <v>1128.895339146927</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>972.9887243394543</v>
+        <v>500.82305886983</v>
       </c>
       <c r="C25" t="n">
-        <v>804.0525414115474</v>
+        <v>331.8868759419231</v>
       </c>
       <c r="D25" t="n">
-        <v>653.9359019992116</v>
+        <v>243.4934169444806</v>
       </c>
       <c r="E25" t="n">
-        <v>653.9359019992116</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="F25" t="n">
-        <v>507.0459545013013</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="G25" t="n">
-        <v>339.3376146092971</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="H25" t="n">
-        <v>193.0714987830164</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="I25" t="n">
-        <v>95.58032336208744</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J25" t="n">
-        <v>140.3216175627472</v>
+        <v>140.3216175627468</v>
       </c>
       <c r="K25" t="n">
-        <v>343.6821446305121</v>
+        <v>343.6821446305111</v>
       </c>
       <c r="L25" t="n">
-        <v>659.440039301254</v>
+        <v>659.4400393012522</v>
       </c>
       <c r="M25" t="n">
-        <v>1002.751589802368</v>
+        <v>1002.751589802365</v>
       </c>
       <c r="N25" t="n">
-        <v>1343.334575393463</v>
+        <v>1343.334575393459</v>
       </c>
       <c r="O25" t="n">
-        <v>1641.901792025964</v>
+        <v>1641.901792025959</v>
       </c>
       <c r="P25" t="n">
-        <v>1873.856942706704</v>
+        <v>1873.856942706699</v>
       </c>
       <c r="Q25" t="n">
-        <v>1951.015585704217</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="R25" t="n">
-        <v>1951.015585704217</v>
+        <v>1860.937681577987</v>
       </c>
       <c r="S25" t="n">
-        <v>1951.015585704217</v>
+        <v>1669.155890474738</v>
       </c>
       <c r="T25" t="n">
-        <v>1951.015585704217</v>
+        <v>1447.365761086447</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.912418651676</v>
+        <v>1447.365761086447</v>
       </c>
       <c r="V25" t="n">
-        <v>1407.227930445789</v>
+        <v>1192.681272880561</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.227930445789</v>
+        <v>903.2641028435999</v>
       </c>
       <c r="X25" t="n">
-        <v>1193.781303482984</v>
+        <v>903.2641028435999</v>
       </c>
       <c r="Y25" t="n">
-        <v>972.9887243394543</v>
+        <v>682.4715237000697</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,28 +6303,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>743.5783504462083</v>
+        <v>263.2638710736756</v>
       </c>
       <c r="C28" t="n">
-        <v>743.5783504462083</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D28" t="n">
-        <v>743.5783504462083</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,49 +6385,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501055</v>
+        <v>1726.898991062667</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V28" t="n">
-        <v>1253.788099626699</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W28" t="n">
-        <v>964.3709295897385</v>
+        <v>893.6944659454628</v>
       </c>
       <c r="X28" t="n">
-        <v>964.3709295897385</v>
+        <v>665.7049150474454</v>
       </c>
       <c r="Y28" t="n">
-        <v>743.5783504462083</v>
+        <v>444.9123359039153</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6443,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.2000540015824</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
         <v>263.2638710736754</v>
@@ -6619,10 +6619,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1100.959038351514</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>811.5418683145535</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>811.5418683145535</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>590.7492891710234</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6692,13 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
         <v>1106.569146563073</v>
@@ -6713,13 +6713,13 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,7 +6807,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6816,7 +6816,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>300.0484256555947</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>300.0484256555947</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>149.9317862432589</v>
       </c>
       <c r="E34" t="n">
         <v>95.56103444839442</v>
@@ -6856,13 +6856,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6889,19 +6889,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208127</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838522</v>
+        <v>709.6864413838517</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>481.6968904858344</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193958</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604875</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7020,7 +7020,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7032,22 +7032,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>295.2086115671859</v>
+        <v>115.8716326558425</v>
       </c>
       <c r="C37" t="n">
-        <v>295.2086115671859</v>
+        <v>115.8716326558425</v>
       </c>
       <c r="D37" t="n">
-        <v>295.2086115671859</v>
+        <v>115.8716326558425</v>
       </c>
       <c r="E37" t="n">
-        <v>239.4667353116589</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F37" t="n">
-        <v>239.4667353116589</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G37" t="n">
-        <v>239.4667353116589</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
-        <v>142.9491542444221</v>
+        <v>142.9491542444233</v>
       </c>
       <c r="K37" t="n">
-        <v>349.2018245423905</v>
+        <v>349.2018245423929</v>
       </c>
       <c r="L37" t="n">
-        <v>668.0271103399788</v>
+        <v>668.0271103399823</v>
       </c>
       <c r="M37" t="n">
-        <v>1014.44964328862</v>
+        <v>1014.449643288625</v>
       </c>
       <c r="N37" t="n">
-        <v>1358.123507343577</v>
+        <v>1358.123507343583</v>
       </c>
       <c r="O37" t="n">
-        <v>1659.718593613082</v>
+        <v>1659.718593613089</v>
       </c>
       <c r="P37" t="n">
-        <v>1894.591581395834</v>
+        <v>1894.591581395842</v>
       </c>
       <c r="Q37" t="n">
-        <v>1974.46736489744</v>
+        <v>1974.46736489745</v>
       </c>
       <c r="R37" t="n">
-        <v>1974.46736489744</v>
+        <v>1974.46736489745</v>
       </c>
       <c r="S37" t="n">
-        <v>1785.092966643145</v>
+        <v>1785.092966643155</v>
       </c>
       <c r="T37" t="n">
-        <v>1565.637837131548</v>
+        <v>1565.63783713156</v>
       </c>
       <c r="U37" t="n">
-        <v>1278.84645617607</v>
+        <v>1278.846456176082</v>
       </c>
       <c r="V37" t="n">
-        <v>1026.473453889061</v>
+        <v>1026.473453889075</v>
       </c>
       <c r="W37" t="n">
-        <v>739.3677697709778</v>
+        <v>739.3677697709928</v>
       </c>
       <c r="X37" t="n">
-        <v>513.6897047918383</v>
+        <v>513.6897047918544</v>
       </c>
       <c r="Y37" t="n">
-        <v>295.2086115671859</v>
+        <v>295.2086115672033</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7202,16 +7202,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,16 +7281,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.457836193253</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036719</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="41">
@@ -7424,13 +7424,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C43" t="n">
         <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932521</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160443</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="44">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416719</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430899</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,7 +7807,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
         <v>800.7468040499225</v>
@@ -7831,7 +7831,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>330.7827762780963</v>
       </c>
       <c r="O11" t="n">
-        <v>274.236033128843</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-6.043573338917851e-12</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5463950602905641</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,10 +8939,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>148.8679122071756</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>148.8679122071902</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>-6.893952761570677e-12</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5463950602905641</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>217.581264437261</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>262.0694240480094</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858493</v>
+        <v>10.12574714858389</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5463950602790522</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>185.728945494894</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>148.8679122071902</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>9.917383541084575</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,16 +9650,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>148.8679122071902</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>10.12574714858389</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.711496169861191e-12</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.5463950602905356</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476831</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>170.1140909277314</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>143.7406601078495</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0312564930841</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.19494907624656</v>
       </c>
       <c r="I13" t="n">
-        <v>96.51626366671968</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.17712508496157</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.8639731922164</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>58.10937080075196</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.17712508496157</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S16" t="n">
-        <v>189.8639731922164</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5722280944081</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>156.4641391850335</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.51626366671967</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.8639731922164</v>
+        <v>76.8912241070645</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2121353820159</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>107.9255065081472</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.51626366671982</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>219.5722280944081</v>
       </c>
       <c r="U22" t="n">
-        <v>252.6471709088984</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>96.06109707627527</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>61.10594861074428</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>89.17712508496156</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.8639731922164</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>14.39749469586056</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>57.45111141485181</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>182.1679443159947</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.86823736419069</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>91.26811680410425</v>
       </c>
     </row>
     <row r="32">
@@ -25078,10 +25078,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>92.6069183696534</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.5436091222483</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>164.9584500389388</v>
+        <v>164.9584500389377</v>
       </c>
       <c r="D37" t="n">
-        <v>146.3271019585234</v>
+        <v>146.3271019585222</v>
       </c>
       <c r="E37" t="n">
-        <v>88.96113409390837</v>
+        <v>124.0380993615054</v>
       </c>
       <c r="F37" t="n">
-        <v>143.1326769632423</v>
+        <v>143.1326769632411</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7374371993392</v>
+        <v>163.737437199338</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.4666438546306</v>
       </c>
       <c r="I37" t="n">
-        <v>94.06404935014911</v>
+        <v>94.06404935014791</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>86.64378161035835</v>
+        <v>86.64378161035715</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1111130.860021788</v>
+        <v>1111130.860021789</v>
       </c>
     </row>
     <row r="14">
@@ -26314,13 +26314,13 @@
         <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>297758.4658390134</v>
+        <v>297758.4658390133</v>
       </c>
       <c r="F2" t="n">
         <v>297758.4658390133</v>
@@ -26332,28 +26332,28 @@
         <v>297758.4658390133</v>
       </c>
       <c r="I2" t="n">
-        <v>297758.4658390135</v>
+        <v>297758.4658390133</v>
       </c>
       <c r="J2" t="n">
         <v>297811.3401652375</v>
       </c>
       <c r="K2" t="n">
-        <v>297811.3401652375</v>
+        <v>297811.3401652376</v>
       </c>
       <c r="L2" t="n">
         <v>297811.3401652376</v>
       </c>
       <c r="M2" t="n">
-        <v>298302.3495360758</v>
+        <v>298302.3495360765</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="O2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991063</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>725022.0883529622</v>
+        <v>725022.0883529598</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.96654327067275e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.225018988610828e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178595.2595245332</v>
+        <v>178595.2595245355</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>131533.0976172954</v>
+        <v>131533.0976172964</v>
       </c>
       <c r="N3" t="n">
-        <v>35749.41244712283</v>
+        <v>35749.41244712192</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18359.70425226863</v>
+        <v>18359.7042522688</v>
       </c>
       <c r="F4" t="n">
-        <v>18359.70425226864</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="G4" t="n">
-        <v>18359.70425226861</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="H4" t="n">
-        <v>18359.70425226883</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="I4" t="n">
-        <v>18359.70425226861</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="L4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="M4" t="n">
-        <v>18901.48044000595</v>
+        <v>18901.48044000637</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.653297409</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96332.31363132436</v>
+        <v>96332.31363132433</v>
       </c>
       <c r="F5" t="n">
-        <v>96332.31363132436</v>
+        <v>96332.31363132433</v>
       </c>
       <c r="G5" t="n">
-        <v>96332.31363132437</v>
+        <v>96332.31363132433</v>
       </c>
       <c r="H5" t="n">
-        <v>96332.3136313243</v>
+        <v>96332.31363132433</v>
       </c>
       <c r="I5" t="n">
-        <v>96332.31363132437</v>
+        <v>96332.31363132433</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96575.89932033065</v>
+        <v>96575.89932033076</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-548284.9804359755</v>
+        <v>-548284.9804359756</v>
       </c>
       <c r="C6" t="n">
-        <v>41682.89877856901</v>
+        <v>41682.89877856887</v>
       </c>
       <c r="D6" t="n">
-        <v>41682.89877856892</v>
+        <v>41682.8987785689</v>
       </c>
       <c r="E6" t="n">
-        <v>-541955.6403975418</v>
+        <v>-542023.1883832735</v>
       </c>
       <c r="F6" t="n">
-        <v>183066.4479554203</v>
+        <v>182998.8999696862</v>
       </c>
       <c r="G6" t="n">
-        <v>183066.4479554203</v>
+        <v>182998.8999696862</v>
       </c>
       <c r="H6" t="n">
-        <v>183066.4479554225</v>
+        <v>182998.8999696862</v>
       </c>
       <c r="I6" t="n">
-        <v>183066.4479554183</v>
+        <v>182998.8999696862</v>
       </c>
       <c r="J6" t="n">
-        <v>4684.070067800683</v>
+        <v>4616.874577572592</v>
       </c>
       <c r="K6" t="n">
-        <v>183279.3295923339</v>
+        <v>183212.1341021082</v>
       </c>
       <c r="L6" t="n">
-        <v>183279.3295923338</v>
+        <v>183212.1341021082</v>
       </c>
       <c r="M6" t="n">
-        <v>51291.87215844382</v>
+        <v>51227.95006402271</v>
       </c>
       <c r="N6" t="n">
-        <v>138202.9269404724</v>
+        <v>138202.9269404733</v>
       </c>
       <c r="O6" t="n">
         <v>173952.3393875952</v>
       </c>
       <c r="P6" t="n">
-        <v>173952.3393875955</v>
+        <v>173952.3393875952</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.75540716229</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="F3" t="n">
-        <v>1086.75540716229</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="G3" t="n">
-        <v>1086.75540716229</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="H3" t="n">
         <v>1086.755407162287</v>
       </c>
       <c r="I3" t="n">
-        <v>1086.75540716229</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.754042026093</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="N2" t="n">
-        <v>44.68676555890354</v>
+        <v>44.6867655589024</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>709.0117429452031</v>
+        <v>709.0117429452002</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,19 +26975,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.488613619313887e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.021293431008189</v>
+        <v>3.021293431011372</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.4667692715375</v>
+        <v>520.4667692715376</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.0461613333928</v>
+        <v>674.0461613333925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715375</v>
+        <v>520.4667692715378</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715375</v>
+        <v>520.4667692715376</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>356.0382519951843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>111.3108523650527</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>135.7278480073533</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>249.4805900720487</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>222.3547236816872</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>396.1001388870311</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>81.13398864317803</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>51.84125811438557</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>87.87253500827501</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>207.1398133828217</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>11.18263959690378</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>244.6259536798931</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.275957614183426e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.557513963650943e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2.799680487441946e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="C37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="D37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="E37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="F37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="G37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="H37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="I37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="J37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="K37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="L37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="M37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="N37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="O37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="P37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="R37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="S37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="T37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="U37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="V37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="W37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="X37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.288371059688998</v>
+        <v>2.288371059690169</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.368865958441362</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H11" t="n">
-        <v>44.74264849688761</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I11" t="n">
-        <v>168.4307048628108</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J11" t="n">
-        <v>370.8020371402629</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K11" t="n">
-        <v>555.7361331610858</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L11" t="n">
-        <v>689.4398147367358</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M11" t="n">
-        <v>767.1346347251674</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N11" t="n">
-        <v>779.5476751295889</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O11" t="n">
-        <v>736.1047642553376</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P11" t="n">
-        <v>628.2483859063165</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.788373769635</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R11" t="n">
-        <v>274.4357762619425</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S11" t="n">
-        <v>99.55553302798263</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T11" t="n">
-        <v>19.12471073307707</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3495092766753089</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.337549366349076</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H12" t="n">
-        <v>22.57580572237134</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I12" t="n">
-        <v>80.48141458701863</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J12" t="n">
-        <v>220.84715307248</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K12" t="n">
-        <v>377.4629606178681</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L12" t="n">
-        <v>507.5455323732939</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M12" t="n">
-        <v>592.2816969034478</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N12" t="n">
-        <v>607.9576310312889</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O12" t="n">
-        <v>556.162458229554</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P12" t="n">
-        <v>446.3694048776582</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.3861261325592</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R12" t="n">
-        <v>145.1331089036734</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.4189542389839</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T12" t="n">
-        <v>9.421964331907017</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1537861425229656</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.95972286537462</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.42371783942164</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I13" t="n">
-        <v>58.9342112605386</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J13" t="n">
-        <v>138.5524065819857</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>227.6841656317059</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L13" t="n">
-        <v>291.3573430939686</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M13" t="n">
-        <v>307.195466978678</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N13" t="n">
-        <v>299.8910453895546</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O13" t="n">
-        <v>276.9979191894965</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P13" t="n">
-        <v>237.019572735854</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.1000664815057</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.11626629220791</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S13" t="n">
-        <v>34.15262484475588</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T13" t="n">
-        <v>8.373361333873376</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1068939744749794</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.368865958441362</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H14" t="n">
-        <v>44.74264849688761</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I14" t="n">
-        <v>168.4307048628108</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J14" t="n">
-        <v>370.8020371402629</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K14" t="n">
-        <v>555.7361331610858</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L14" t="n">
-        <v>689.4398147367358</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M14" t="n">
-        <v>767.1346347251674</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N14" t="n">
-        <v>779.5476751295889</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O14" t="n">
-        <v>736.1047642553376</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P14" t="n">
-        <v>628.2483859063165</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.788373769635</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R14" t="n">
-        <v>274.4357762619425</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S14" t="n">
-        <v>99.55553302798263</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T14" t="n">
-        <v>19.12471073307707</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3495092766753089</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.337549366349076</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H15" t="n">
-        <v>22.57580572237134</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I15" t="n">
-        <v>80.48141458701863</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J15" t="n">
-        <v>220.84715307248</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K15" t="n">
-        <v>377.4629606178681</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L15" t="n">
-        <v>507.5455323732939</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M15" t="n">
-        <v>592.2816969034478</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N15" t="n">
-        <v>607.9576310312889</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O15" t="n">
-        <v>556.162458229554</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3694048776582</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.3861261325592</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R15" t="n">
-        <v>145.1331089036734</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S15" t="n">
-        <v>43.4189542389839</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T15" t="n">
-        <v>9.421964331907017</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1537861425229656</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.95972286537462</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H16" t="n">
-        <v>17.42371783942164</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I16" t="n">
-        <v>58.9342112605386</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J16" t="n">
-        <v>138.5524065819857</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K16" t="n">
-        <v>227.6841656317059</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L16" t="n">
-        <v>291.3573430939686</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M16" t="n">
-        <v>307.195466978678</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N16" t="n">
-        <v>299.8910453895546</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O16" t="n">
-        <v>276.9979191894965</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P16" t="n">
-        <v>237.019572735854</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.1000664815057</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R16" t="n">
-        <v>88.11626629220791</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S16" t="n">
-        <v>34.15262484475588</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T16" t="n">
-        <v>8.373361333873376</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1068939744749794</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.368865958441363</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H17" t="n">
-        <v>44.74264849688762</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I17" t="n">
-        <v>168.4307048628108</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J17" t="n">
-        <v>370.802037140263</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K17" t="n">
-        <v>555.7361331610859</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L17" t="n">
-        <v>689.439814736736</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M17" t="n">
-        <v>767.1346347251675</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N17" t="n">
-        <v>779.5476751295892</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O17" t="n">
-        <v>736.1047642553378</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P17" t="n">
-        <v>628.2483859063166</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q17" t="n">
-        <v>471.7883737696351</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R17" t="n">
-        <v>274.4357762619425</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S17" t="n">
-        <v>99.55553302798266</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T17" t="n">
-        <v>19.12471073307708</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.349509276675309</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.337549366349077</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H18" t="n">
-        <v>22.57580572237135</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I18" t="n">
-        <v>80.48141458701865</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J18" t="n">
-        <v>220.8471530724801</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K18" t="n">
-        <v>377.4629606178682</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L18" t="n">
-        <v>507.545532373294</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M18" t="n">
-        <v>592.2816969034479</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N18" t="n">
-        <v>607.957631031289</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O18" t="n">
-        <v>556.1624582295541</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P18" t="n">
-        <v>446.3694048776583</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.3861261325593</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R18" t="n">
-        <v>145.1331089036734</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S18" t="n">
-        <v>43.41895423898391</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T18" t="n">
-        <v>9.42196433190702</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1537861425229656</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.959722865374621</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H19" t="n">
-        <v>17.42371783942164</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I19" t="n">
-        <v>58.93421126053862</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J19" t="n">
-        <v>138.5524065819857</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K19" t="n">
-        <v>227.6841656317059</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L19" t="n">
-        <v>291.3573430939687</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M19" t="n">
-        <v>307.195466978678</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N19" t="n">
-        <v>299.8910453895547</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O19" t="n">
-        <v>276.9979191894965</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P19" t="n">
-        <v>237.019572735854</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.1000664815058</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R19" t="n">
-        <v>88.11626629220792</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S19" t="n">
-        <v>34.15262484475588</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T19" t="n">
-        <v>8.373361333873378</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1068939744749794</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.368865958441363</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H23" t="n">
-        <v>44.74264849688762</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I23" t="n">
-        <v>168.4307048628108</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J23" t="n">
-        <v>370.802037140263</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K23" t="n">
-        <v>555.7361331610859</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L23" t="n">
-        <v>689.439814736736</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M23" t="n">
-        <v>767.1346347251675</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N23" t="n">
-        <v>779.5476751295892</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O23" t="n">
-        <v>736.1047642553378</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P23" t="n">
-        <v>628.2483859063166</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q23" t="n">
-        <v>471.7883737696351</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R23" t="n">
-        <v>274.4357762619425</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S23" t="n">
-        <v>99.55553302798266</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T23" t="n">
-        <v>19.12471073307708</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U23" t="n">
-        <v>0.349509276675309</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.337549366349077</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H24" t="n">
-        <v>22.57580572237135</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I24" t="n">
-        <v>80.48141458701865</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J24" t="n">
-        <v>220.8471530724801</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K24" t="n">
-        <v>377.4629606178682</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L24" t="n">
-        <v>507.545532373294</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M24" t="n">
-        <v>592.2816969034479</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N24" t="n">
-        <v>607.957631031289</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O24" t="n">
-        <v>556.1624582295541</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P24" t="n">
-        <v>446.3694048776583</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.3861261325593</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R24" t="n">
-        <v>145.1331089036734</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S24" t="n">
-        <v>43.41895423898391</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T24" t="n">
-        <v>9.42196433190702</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1537861425229656</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.959722865374621</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H25" t="n">
-        <v>17.42371783942164</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I25" t="n">
-        <v>58.93421126053862</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J25" t="n">
-        <v>138.5524065819857</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K25" t="n">
-        <v>227.6841656317059</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L25" t="n">
-        <v>291.3573430939687</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M25" t="n">
-        <v>307.195466978678</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N25" t="n">
-        <v>299.8910453895547</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O25" t="n">
-        <v>276.9979191894965</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P25" t="n">
-        <v>237.019572735854</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.1000664815058</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R25" t="n">
-        <v>88.11626629220792</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S25" t="n">
-        <v>34.15262484475588</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T25" t="n">
-        <v>8.373361333873378</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1068939744749794</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>189.7561326135766</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K11" t="n">
-        <v>659.79169468727</v>
+        <v>659.7916946872687</v>
       </c>
       <c r="L11" t="n">
-        <v>871.334614317199</v>
+        <v>871.3346143171973</v>
       </c>
       <c r="M11" t="n">
-        <v>536.7884014978947</v>
+        <v>536.7884014978928</v>
       </c>
       <c r="N11" t="n">
-        <v>987.4815359449822</v>
+        <v>880.9173878110925</v>
       </c>
       <c r="O11" t="n">
-        <v>780.2425859624939</v>
+        <v>886.8067340963944</v>
       </c>
       <c r="P11" t="n">
-        <v>397.0153901510469</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.4826838951855</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R11" t="n">
-        <v>58.85023844781034</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581335</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K12" t="n">
-        <v>239.6215216435091</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934197</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M12" t="n">
-        <v>450.1476629814188</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N12" t="n">
-        <v>476.6159189479556</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5662137851095</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P12" t="n">
-        <v>312.394997463328</v>
+        <v>312.3949974633254</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.4043520465377</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19322646531288</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K13" t="n">
-        <v>205.414673805823</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L13" t="n">
-        <v>318.9473683542848</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M13" t="n">
-        <v>346.7793439405186</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N13" t="n">
-        <v>344.0232177687832</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O13" t="n">
-        <v>301.5830471035362</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P13" t="n">
-        <v>234.2981320007475</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.93802322981207</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>189.7561326135766</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K14" t="n">
-        <v>335.6462821161053</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L14" t="n">
-        <v>871.334614317199</v>
+        <v>871.3346143171973</v>
       </c>
       <c r="M14" t="n">
-        <v>986.3019349907272</v>
+        <v>986.3019349907253</v>
       </c>
       <c r="N14" t="n">
-        <v>987.4815359449822</v>
+        <v>987.4815359449802</v>
       </c>
       <c r="O14" t="n">
-        <v>654.8744650408264</v>
+        <v>506.006552833649</v>
       </c>
       <c r="P14" t="n">
-        <v>397.0153901510469</v>
+        <v>545.8833023582355</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.4826838951855</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R14" t="n">
-        <v>58.85023844781034</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.00952640580263</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K15" t="n">
-        <v>239.6215216435091</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L15" t="n">
-        <v>368.9911525934197</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M15" t="n">
-        <v>450.1476629814295</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N15" t="n">
-        <v>476.6159189479556</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5662137851095</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P15" t="n">
-        <v>312.394997463328</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.4043520465377</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19322646531288</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K16" t="n">
-        <v>205.414673805823</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L16" t="n">
-        <v>318.9473683542876</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M16" t="n">
-        <v>346.7793439405186</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N16" t="n">
-        <v>344.0232177687832</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O16" t="n">
-        <v>301.5830471035362</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P16" t="n">
-        <v>234.2981320007475</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.93802322981135</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.7561326135767</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K17" t="n">
-        <v>335.6462821161054</v>
+        <v>659.7916946872687</v>
       </c>
       <c r="L17" t="n">
-        <v>871.3346143171992</v>
+        <v>871.3346143171973</v>
       </c>
       <c r="M17" t="n">
-        <v>754.3696659351558</v>
+        <v>986.3019349907253</v>
       </c>
       <c r="N17" t="n">
-        <v>987.4815359449824</v>
+        <v>812.2040355810055</v>
       </c>
       <c r="O17" t="n">
-        <v>886.8067340963964</v>
+        <v>506.006552833649</v>
       </c>
       <c r="P17" t="n">
-        <v>397.015390151047</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q17" t="n">
-        <v>249.4826838951856</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R17" t="n">
-        <v>58.8502384478104</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.0095264058134</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K18" t="n">
-        <v>239.6215216435092</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L18" t="n">
-        <v>368.9911525934198</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M18" t="n">
-        <v>450.1476629814296</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N18" t="n">
-        <v>476.6159189479557</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O18" t="n">
-        <v>413.5662137851097</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P18" t="n">
-        <v>312.3949974633281</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.4043520465378</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R18" t="n">
-        <v>-6.370163670258868e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.1932264653129</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K19" t="n">
-        <v>205.414673805823</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L19" t="n">
-        <v>318.9473683542848</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M19" t="n">
-        <v>346.7793439405186</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N19" t="n">
-        <v>344.0232177687833</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O19" t="n">
-        <v>301.5830471035362</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P19" t="n">
-        <v>234.2981320007475</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.93802322981138</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>335.6462821161039</v>
       </c>
       <c r="L20" t="n">
-        <v>639.4023452616409</v>
+        <v>871.3346143171973</v>
       </c>
       <c r="M20" t="n">
         <v>986.3019349907253</v>
@@ -36133,7 +36133,7 @@
         <v>987.4815359449802</v>
       </c>
       <c r="O20" t="n">
-        <v>886.8067340963944</v>
+        <v>654.8744650408393</v>
       </c>
       <c r="P20" t="n">
         <v>397.0153901510453</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.00952640581281</v>
+        <v>94.00952640581151</v>
       </c>
       <c r="K21" t="n">
         <v>239.6215216435082</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>358.8527477856505</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K23" t="n">
-        <v>345.56366565719</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L23" t="n">
-        <v>453.6733997667488</v>
+        <v>871.3346143171973</v>
       </c>
       <c r="M23" t="n">
-        <v>986.3019349907273</v>
+        <v>986.3019349907253</v>
       </c>
       <c r="N23" t="n">
-        <v>987.4815359449824</v>
+        <v>987.4815359449802</v>
       </c>
       <c r="O23" t="n">
-        <v>506.0065528336511</v>
+        <v>654.8744650408393</v>
       </c>
       <c r="P23" t="n">
-        <v>718.8140983225296</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q23" t="n">
-        <v>249.4826838951856</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R23" t="n">
-        <v>124.5666583207928</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.0095264058134</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K24" t="n">
-        <v>239.6215216434976</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L24" t="n">
-        <v>368.9911525934198</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M24" t="n">
-        <v>450.1476629814296</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N24" t="n">
-        <v>476.6159189479557</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O24" t="n">
-        <v>413.5662137851097</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P24" t="n">
-        <v>312.3949974633281</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.4043520465378</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.1932264653129</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K25" t="n">
-        <v>205.414673805823</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L25" t="n">
-        <v>318.9473683542848</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M25" t="n">
-        <v>346.7793439405186</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N25" t="n">
-        <v>344.0232177687833</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O25" t="n">
-        <v>301.5830471035362</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P25" t="n">
-        <v>234.2981320007475</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q25" t="n">
-        <v>77.93802322981138</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359025</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200636</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.86678767275522</v>
+        <v>47.86678767275639</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3360306040086</v>
+        <v>208.3360306040097</v>
       </c>
       <c r="L37" t="n">
-        <v>322.0457432298871</v>
+        <v>322.0457432298883</v>
       </c>
       <c r="M37" t="n">
-        <v>349.9217504531728</v>
+        <v>349.921750453174</v>
       </c>
       <c r="N37" t="n">
-        <v>347.1453172272291</v>
+        <v>347.1453172272302</v>
       </c>
       <c r="O37" t="n">
-        <v>304.6415012823288</v>
+        <v>304.64150128233</v>
       </c>
       <c r="P37" t="n">
-        <v>237.2454422047994</v>
+        <v>237.2454422048006</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.68260959758265</v>
+        <v>80.68260959758382</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37792,7 +37792,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
